--- a/data/cv_raw.xlsx
+++ b/data/cv_raw.xlsx
@@ -14,12 +14,13 @@
     <sheet name="acad" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="otherTr" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="elective" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="app" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">Degree</t>
   </si>
@@ -229,6 +230,42 @@
   </si>
   <si>
     <t xml:space="preserve">Electives at Department of Psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECx MCQ Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://si-physio-intern.shinyapps.io/SELECx_mcq_analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECx Combine Quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://si-physio-intern.shinyapps.io/SELECx_combine_quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTPS calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://btps-calc.herokuapp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic rate and Oxygen consumption calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://metabolic-rate-calc.herokuapp.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combine HRV and BRS Report file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sips-ans.shinyapps.io/read_HRV_report</t>
   </si>
 </sst>
 </file>
@@ -1255,4 +1292,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="9.14" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="9.14" hidden="0" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>